--- a/Labs/Lab03-Authentication/Lab3IRubric-Authentication.xlsx
+++ b/Labs/Lab03-Authentication/Lab3IRubric-Authentication.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS296N-CourseMaterials/Labs/Lab03-Authentication/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS296N-CourseMaterials\Labs\Lab03-Authentication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8F4711-68B3-6E4E-A616-36A18C67BD62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24CAB9E-3A5D-4BE2-8735-0820DE5DC1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="1500" windowWidth="14140" windowHeight="14180" activeTab="1" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
+    <workbookView xWindow="32052" yWindow="5292" windowWidth="11688" windowHeight="10992" activeTab="1" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="2" r:id="rId1"/>
     <sheet name="Grading" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Possible</t>
   </si>
@@ -82,10 +93,7 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Two SiteDbContext files</t>
-  </si>
-  <si>
-    <t>Zaelin Bull</t>
+    <t>owen</t>
   </si>
 </sst>
 </file>
@@ -470,28 +478,28 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19.796875" customWidth="1"/>
+    <col min="2" max="2" width="6.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -499,17 +507,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -517,7 +525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -525,7 +533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -533,7 +541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -541,7 +549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -549,7 +557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -557,7 +565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -565,7 +573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -573,7 +581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -591,26 +599,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B4A847-4F96-D246-88E5-35AE03F623AE}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.69921875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="6.796875" customWidth="1"/>
     <col min="5" max="5" width="1.5" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
@@ -621,15 +632,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -640,17 +648,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -661,7 +669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -672,7 +680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -683,7 +691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -694,7 +702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -705,7 +713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -716,7 +724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -726,11 +734,8 @@
       <c r="D14">
         <v>4</v>
       </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -741,7 +746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>

--- a/Labs/Lab03-Authentication/Lab3IRubric-Authentication.xlsx
+++ b/Labs/Lab03-Authentication/Lab3IRubric-Authentication.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS296N-CourseMaterials\Labs\Lab03-Authentication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24CAB9E-3A5D-4BE2-8735-0820DE5DC1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C895DF-B645-4ECF-823A-B0CB5F34EB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32052" yWindow="5292" windowWidth="11688" windowHeight="10992" activeTab="1" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
+    <workbookView xWindow="6900" yWindow="4104" windowWidth="14388" windowHeight="10992" activeTab="1" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Possible</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>owen</t>
   </si>
 </sst>
 </file>
@@ -600,13 +597,13 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.69921875" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="6.796875" customWidth="1"/>
     <col min="5" max="5" width="1.5" customWidth="1"/>
@@ -617,9 +614,6 @@
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="s">
